--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,20 +5,21 @@
   <sheets>
     <sheet state="visible" name="Settings" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Constants" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Assets" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Exceptions" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Assets" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miDx2/pi1Co40IAIzfgute/Z152vQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7miMosBZtwpUPyR4kYLqKEt5cSZaSQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -38,6 +39,20 @@
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
   </si>
   <si>
+    <t>OrchestratorQueueFolder</t>
+  </si>
+  <si>
+    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+  </si>
+  <si>
+    <t>REF_SingleExecution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must be TRUE or FALSE - switches within GetTransactionData.xaml activity will be used if 
+True -  Get Queue Item (Queue item based process)
+False - Add Queue item (Single execution process) </t>
+  </si>
+  <si>
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
@@ -47,33 +62,54 @@
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
-    <t>TransactionMailTo</t>
+    <t>TransactionSeMailTo</t>
   </si>
   <si>
     <t>sample@email.com</t>
   </si>
   <si>
-    <t>TransactionMailSubject</t>
+    <t xml:space="preserve">System Exception values to be used in SetTransactionStatus </t>
+  </si>
+  <si>
+    <t>TransactionSeMailSubject</t>
   </si>
   <si>
     <t>sample subject</t>
   </si>
   <si>
-    <t>TransactionMailBody</t>
+    <t>TransactionSeMailBody</t>
   </si>
   <si>
     <t>sample body</t>
   </si>
   <si>
+    <t>TransactionBeMailTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Exception values to be used in SetTransactionStatus </t>
+  </si>
+  <si>
+    <t>TransactionBeMailSubject</t>
+  </si>
+  <si>
+    <t>TransactionBeMailBody</t>
+  </si>
+  <si>
     <t>MailServer</t>
   </si>
   <si>
     <t>1.1.1.1</t>
   </si>
   <si>
+    <t>To be used with SendSmtpMail, if otehr activity will be used, update not needed values to fit other notification channel</t>
+  </si>
+  <si>
     <t>InitMailTo</t>
   </si>
   <si>
+    <t>Values to be used in transition between Init state and End state of the Main workflow</t>
+  </si>
+  <si>
     <t>InitMailSubject</t>
   </si>
   <si>
@@ -92,6 +128,12 @@
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
   </si>
   <si>
+    <t>MaxConsecutiveSystemExceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
     <t>ExScreenshotsFolderPath</t>
   </si>
   <si>
@@ -146,7 +188,49 @@
     <t>Static part of logging message. Processed Transaction failed with application exception.</t>
   </si>
   <si>
-    <t>REF_SingleExecution</t>
+    <t>ExceptionMessage_ConsecutiveErrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
+  </si>
+  <si>
+    <t>RetryNumberGetTransactionItem</t>
+  </si>
+  <si>
+    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
+  </si>
+  <si>
+    <t>RetryNumberSetTransactionStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>B000</t>
+  </si>
+  <si>
+    <t>Sample BE</t>
+  </si>
+  <si>
+    <t>Name - Exception code, Message - Exception main descrption, Value - formula to combine both values and to be used as exception message in process</t>
+  </si>
+  <si>
+    <t>S000</t>
+  </si>
+  <si>
+    <t>Sample SE</t>
   </si>
   <si>
     <t>Asset</t>
@@ -162,11 +246,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -175,10 +260,20 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,21 +289,30 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -227,6 +331,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -482,79 +590,130 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -759,9 +918,9 @@
     <row r="218" ht="14.25" customHeight="1"/>
     <row r="219" ht="14.25" customHeight="1"/>
     <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
@@ -1539,7 +1698,15 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C14:C16"/>
+  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1595,98 +1762,141 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7">
         <v>0.0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
+    <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
+      <c r="A9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
+      <c r="A10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6" t="b">
-        <v>0</v>
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
@@ -2681,6 +2891,68 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.71"/>
+    <col customWidth="1" min="2" max="2" width="20.0"/>
+    <col customWidth="1" min="3" max="3" width="23.86"/>
+    <col customWidth="1" min="4" max="4" width="22.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <f t="shared" ref="B2:B3" si="1">A2 &amp; " - " &amp; C2</f>
+        <v>B000 - Sample BE</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>S000 - Sample SE</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -2699,13 +2971,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
